--- a/xls/NejcitovanejsiPatenty.xlsx
+++ b/xls/NejcitovanejsiPatenty.xlsx
@@ -14,10 +14,8 @@
   <sheets>
     <sheet name="NejcitovanejsiPatenty" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NejcitovanejsiPatenty!$A$1:$H$136</definedName>
     <definedName name="pat_cite_all" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,8 +27,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Srholec Martin</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Srholec Martin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+avcr = Akademie Věd ČR,
+vvs = Veřejné vysoké školy,
+ovo = Ostatní výzkumné organizace,
+podnik = podniky</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="336">
   <si>
     <t>ÚSTAV EXPERIMENTÁLNÍ BOTANIKY AV ČR</t>
   </si>
@@ -44,9 +81,6 @@
     <t>https://worldwide.espacenet.com/searchResults?ST=singleline&amp;locale=en_EP&amp;submitted=true&amp;DB=&amp;query=US+6552192</t>
   </si>
   <si>
-    <t>SPOLEK PRO CHEMICKOU A HUTNI VYROBU</t>
-  </si>
-  <si>
     <t>WO</t>
   </si>
   <si>
@@ -71,9 +105,6 @@
     <t>https://worldwide.espacenet.com/searchResults?ST=singleline&amp;locale=en_EP&amp;submitted=true&amp;DB=&amp;query=WO+0149688</t>
   </si>
   <si>
-    <t xml:space="preserve">TECHNICKÁ UNIVERZITA V LIBERCI  </t>
-  </si>
-  <si>
     <t>2005024101</t>
   </si>
   <si>
@@ -89,9 +120,6 @@
     <t>https://worldwide.espacenet.com/searchResults?ST=singleline&amp;locale=en_EP&amp;submitted=true&amp;DB=&amp;query=WO+2007134556</t>
   </si>
   <si>
-    <t xml:space="preserve">MASARYKOVA UNIVERZITA  </t>
-  </si>
-  <si>
     <t>6525481</t>
   </si>
   <si>
@@ -155,18 +183,12 @@
     <t>https://worldwide.espacenet.com/searchResults?ST=singleline&amp;locale=en_EP&amp;submitted=true&amp;DB=&amp;query=WO+2006131081</t>
   </si>
   <si>
-    <t xml:space="preserve">ČESKÉ VYSOKÉ UČENÍ TECHNICKÉ V PRAZE  </t>
-  </si>
-  <si>
     <t>2010114633</t>
   </si>
   <si>
     <t>https://worldwide.espacenet.com/searchResults?ST=singleline&amp;locale=en_EP&amp;submitted=true&amp;DB=&amp;query=US+2010114633</t>
   </si>
   <si>
-    <t>SKODA AUTO</t>
-  </si>
-  <si>
     <t>2009146615</t>
   </si>
   <si>
@@ -473,9 +495,6 @@
     <t>https://worldwide.espacenet.com/searchResults?ST=singleline&amp;locale=en_EP&amp;submitted=true&amp;DB=&amp;query=WO+2005085145</t>
   </si>
   <si>
-    <t>NAREX CESKA LIPA</t>
-  </si>
-  <si>
     <t>1618990</t>
   </si>
   <si>
@@ -584,9 +603,6 @@
     <t>https://worldwide.espacenet.com/searchResults?ST=singleline&amp;locale=en_EP&amp;submitted=true&amp;DB=&amp;query=US+7137280</t>
   </si>
   <si>
-    <t xml:space="preserve">VYSOKÁ ŠKOLA CHEMICKO-TECHNOLOGICKÁ V PRAZE  </t>
-  </si>
-  <si>
     <t>03078349</t>
   </si>
   <si>
@@ -626,9 +642,6 @@
     <t>https://worldwide.espacenet.com/searchResults?ST=singleline&amp;locale=en_EP&amp;submitted=true&amp;DB=&amp;query=DE+102007024471</t>
   </si>
   <si>
-    <t>CROSS ZLIN</t>
-  </si>
-  <si>
     <t>02089089</t>
   </si>
   <si>
@@ -686,9 +699,6 @@
     <t>https://worldwide.espacenet.com/searchResults?ST=singleline&amp;locale=en_EP&amp;submitted=true&amp;DB=&amp;query=WO+2007048361</t>
   </si>
   <si>
-    <t xml:space="preserve">UNIVERZITA PALACKÉHO V OLOMOUCI  </t>
-  </si>
-  <si>
     <t>1475094</t>
   </si>
   <si>
@@ -1026,13 +1036,52 @@
   </si>
   <si>
     <t>Datum podání žádosti</t>
+  </si>
+  <si>
+    <t>Sektor</t>
+  </si>
+  <si>
+    <t>avcr</t>
+  </si>
+  <si>
+    <t>podnik</t>
+  </si>
+  <si>
+    <t>vvs</t>
+  </si>
+  <si>
+    <t>SPOLCHEMIE</t>
+  </si>
+  <si>
+    <t>TECHNICKÁ UNIVERZITA V LIBERCI</t>
+  </si>
+  <si>
+    <t>MASARYKOVA UNIVERZITA</t>
+  </si>
+  <si>
+    <t>ČESKÉ VYSOKÉ UČENÍ TECHNICKÉ V PRAZE</t>
+  </si>
+  <si>
+    <t>ŠKODA AUTO</t>
+  </si>
+  <si>
+    <t>NAREX</t>
+  </si>
+  <si>
+    <t>VYSOKÁ ŠKOLA CHEMICKO-TECHNOLOGICKÁ V PRAZE</t>
+  </si>
+  <si>
+    <t>CROSS ZLÍN</t>
+  </si>
+  <si>
+    <t>UNIVERZITA PALACKÉHO V OLOMOUCI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,6 +1114,21 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1080,7 +1144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1099,12 +1163,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1123,6 +1196,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,21 +1213,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="pat_cite_Patents"/>
-      <sheetName val="individual patents"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1418,46 +1477,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>330</v>
+        <v>316</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>61389030</v>
       </c>
@@ -1465,68 +1528,77 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>37084</v>
       </c>
-      <c r="F2" s="9">
+      <c r="G2" s="9">
         <v>132</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11789</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="5">
+        <v>38222</v>
+      </c>
+      <c r="G3" s="9">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5">
-        <v>38222</v>
-      </c>
-      <c r="F3" s="9">
-        <v>81</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15547515</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="5">
+        <v>36550</v>
+      </c>
+      <c r="G4" s="9">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5">
-        <v>36550</v>
-      </c>
-      <c r="F4" s="9">
-        <v>80</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>61389030</v>
       </c>
@@ -1534,137 +1606,155 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <v>36899</v>
+      </c>
+      <c r="G5" s="9">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5">
-        <v>36899</v>
-      </c>
-      <c r="F5" s="9">
-        <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>46747885</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5">
+        <v>38238</v>
+      </c>
+      <c r="G6" s="9">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5">
-        <v>38238</v>
-      </c>
-      <c r="F6" s="9">
-        <v>69</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>27411532</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5">
+        <v>39225</v>
+      </c>
+      <c r="G7" s="9">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5">
-        <v>39225</v>
-      </c>
-      <c r="F7" s="9">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>216224</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="C8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5">
         <v>36839</v>
       </c>
-      <c r="F8" s="9">
+      <c r="G8" s="9">
         <v>39</v>
       </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>46747885</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>328</v>
       </c>
       <c r="C9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5">
         <v>38782</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G9" s="9">
         <v>37</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>27259323</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5">
         <v>36735</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>61389030</v>
       </c>
@@ -1672,229 +1762,259 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5">
+        <v>324</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5">
         <v>37343</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>33</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>49240030</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5">
+        <v>37651</v>
+      </c>
+      <c r="G12" s="9">
         <v>31</v>
       </c>
-      <c r="E12" s="5">
-        <v>37651</v>
-      </c>
-      <c r="F12" s="9">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>47675764</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5">
+        <v>325</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="5">
         <v>37601</v>
       </c>
-      <c r="F13" s="9">
+      <c r="G13" s="9">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>49240030</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="5">
+        <v>325</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5">
         <v>37915</v>
       </c>
-      <c r="F14" s="9">
+      <c r="G14" s="9">
         <v>29</v>
       </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25421719</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="5">
+        <v>325</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="5">
         <v>38869</v>
       </c>
-      <c r="F15" s="9">
+      <c r="G15" s="9">
         <v>28</v>
       </c>
-      <c r="G15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>68407700</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="C16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5">
         <v>39813</v>
       </c>
-      <c r="F16" s="9">
+      <c r="G16" s="9">
         <v>28</v>
       </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>177041</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="5">
         <v>38644</v>
       </c>
-      <c r="F17" s="9">
+      <c r="G17" s="9">
         <v>27</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25421719</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="5">
+        <v>325</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="5">
         <v>39023</v>
       </c>
-      <c r="F18" s="9">
+      <c r="G18" s="9">
         <v>26</v>
       </c>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>25421719</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="5">
+        <v>325</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="5">
         <v>39023</v>
       </c>
-      <c r="F19" s="9">
+      <c r="G19" s="9">
         <v>25</v>
       </c>
-      <c r="G19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>49240030</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="5">
+        <v>325</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5">
         <v>37371</v>
       </c>
-      <c r="F20" s="9">
+      <c r="G20" s="9">
         <v>25</v>
       </c>
-      <c r="G20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>61389030</v>
       </c>
@@ -1902,390 +2022,441 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="5">
+        <v>324</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="5">
         <v>37984</v>
       </c>
-      <c r="F21" s="9">
+      <c r="G21" s="9">
         <v>25</v>
       </c>
-      <c r="G21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>49240030</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="5">
+        <v>325</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5">
         <v>38839</v>
       </c>
-      <c r="F22" s="9">
+      <c r="G22" s="9">
         <v>24</v>
       </c>
-      <c r="G22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>49240030</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="5">
+        <v>325</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="5">
         <v>38646</v>
       </c>
-      <c r="F23" s="9">
+      <c r="G23" s="9">
         <v>23</v>
       </c>
-      <c r="G23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>49240030</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="5">
+        <v>325</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="5">
         <v>38876</v>
       </c>
-      <c r="F24" s="9">
+      <c r="G24" s="9">
         <v>23</v>
       </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>27137074</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="5">
+        <v>325</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="5">
         <v>38230</v>
       </c>
-      <c r="F25" s="9">
+      <c r="G25" s="9">
         <v>23</v>
       </c>
-      <c r="G25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26914620</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="5">
+        <v>325</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="5">
         <v>36559</v>
       </c>
-      <c r="F26" s="9">
+      <c r="G26" s="9">
         <v>23</v>
       </c>
-      <c r="G26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>45193363</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D27" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="5">
         <v>38483</v>
       </c>
-      <c r="F27" s="9">
+      <c r="G27" s="9">
         <v>23</v>
       </c>
-      <c r="G27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>49240030</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="5">
+        <v>325</v>
+      </c>
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="5">
         <v>38574</v>
       </c>
-      <c r="F28" s="9">
+      <c r="G28" s="9">
         <v>22</v>
       </c>
-      <c r="G28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25421719</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="5">
+        <v>325</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="5">
         <v>39318</v>
       </c>
-      <c r="F29" s="9">
+      <c r="G29" s="9">
         <v>22</v>
       </c>
-      <c r="G29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>49240030</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="5">
+        <v>325</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="5">
         <v>37532</v>
       </c>
-      <c r="F30" s="9">
+      <c r="G30" s="9">
         <v>21</v>
       </c>
-      <c r="G30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>177041</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="5">
+        <v>325</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="5">
         <v>39486</v>
       </c>
-      <c r="F31" s="9">
+      <c r="G31" s="9">
         <v>21</v>
       </c>
-      <c r="G31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>177041</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="5">
+        <v>325</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="5">
         <v>38376</v>
       </c>
-      <c r="F32" s="9">
+      <c r="G32" s="9">
         <v>21</v>
       </c>
-      <c r="G32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>49240030</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="5">
+        <v>325</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="5">
         <v>37859</v>
       </c>
-      <c r="F33" s="9">
+      <c r="G33" s="9">
         <v>21</v>
       </c>
-      <c r="G33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>68378271</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="5">
         <v>39892</v>
       </c>
-      <c r="F34" s="9">
+      <c r="G34" s="9">
         <v>21</v>
       </c>
-      <c r="G34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28602030</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="5">
+        <v>325</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="5">
         <v>39199</v>
       </c>
-      <c r="F35" s="9">
+      <c r="G35" s="9">
         <v>20</v>
       </c>
-      <c r="G35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>46747885</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>13</v>
+        <v>328</v>
       </c>
       <c r="C36" t="s">
+        <v>326</v>
+      </c>
+      <c r="D36" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="5">
         <v>38782</v>
       </c>
-      <c r="F36" s="9">
+      <c r="G36" s="9">
         <v>20</v>
       </c>
-      <c r="G36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>47675764</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="5">
+        <v>325</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="5">
         <v>36755</v>
       </c>
-      <c r="F37" s="9">
+      <c r="G37" s="9">
         <v>20</v>
       </c>
-      <c r="G37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>61389030</v>
       </c>
@@ -2293,298 +2464,337 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="5">
         <v>38237</v>
       </c>
-      <c r="F38" s="9">
+      <c r="G38" s="9">
         <v>20</v>
       </c>
-      <c r="G38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>25421719</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
+        <v>325</v>
+      </c>
+      <c r="D39" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="5">
         <v>39234</v>
       </c>
-      <c r="F39" s="9">
+      <c r="G39" s="9">
         <v>20</v>
       </c>
-      <c r="G39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>46747885</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>13</v>
+        <v>328</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="5">
+        <v>326</v>
+      </c>
+      <c r="D40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" s="5">
         <v>37872</v>
       </c>
-      <c r="F40" s="9">
+      <c r="G40" s="9">
         <v>20</v>
       </c>
-      <c r="G40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>26510022</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="5">
+        <v>325</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="5">
         <v>38952</v>
       </c>
-      <c r="F41" s="9">
+      <c r="G41" s="9">
         <v>19</v>
       </c>
-      <c r="G41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>25782983</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
+        <v>325</v>
+      </c>
+      <c r="D42" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="5">
         <v>38469</v>
       </c>
-      <c r="F42" s="9">
+      <c r="G42" s="9">
         <v>19</v>
       </c>
-      <c r="G42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>177041</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="5">
+        <v>325</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="5">
         <v>38482</v>
       </c>
-      <c r="F43" s="9">
+      <c r="G43" s="9">
         <v>19</v>
       </c>
-      <c r="G43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>49240030</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="5">
+        <v>325</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="5">
         <v>39882</v>
       </c>
-      <c r="F44" s="9">
+      <c r="G44" s="9">
         <v>18</v>
       </c>
-      <c r="G44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45534578</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
+        <v>325</v>
+      </c>
+      <c r="D45" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="5">
         <v>37949</v>
       </c>
-      <c r="F45" s="9">
+      <c r="G45" s="9">
         <v>18</v>
       </c>
-      <c r="G45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15547515</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
+        <v>325</v>
+      </c>
+      <c r="D46" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="5">
         <v>36899</v>
       </c>
-      <c r="F46" s="9">
+      <c r="G46" s="9">
         <v>18</v>
       </c>
-      <c r="G46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>25565010</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="5">
         <v>38623</v>
       </c>
-      <c r="F47" s="9">
+      <c r="G47" s="9">
         <v>18</v>
       </c>
-      <c r="G47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>27078957</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
+        <v>325</v>
+      </c>
+      <c r="D48" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="5">
         <v>40316</v>
       </c>
-      <c r="F48" s="9">
+      <c r="G48" s="9">
         <v>18</v>
       </c>
-      <c r="G48" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>27078957</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="5">
         <v>39436</v>
       </c>
-      <c r="F49" s="9">
+      <c r="G49" s="9">
         <v>17</v>
       </c>
-      <c r="G49" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>27137074</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
+        <v>325</v>
+      </c>
+      <c r="D50" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="5">
         <v>38230</v>
       </c>
-      <c r="F50" s="9">
+      <c r="G50" s="9">
         <v>17</v>
       </c>
-      <c r="G50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>61389030</v>
       </c>
@@ -2592,298 +2802,337 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="5">
         <v>38387</v>
       </c>
-      <c r="F51" s="9">
+      <c r="G51" s="9">
         <v>17</v>
       </c>
-      <c r="G51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>61388963</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
+        <v>324</v>
+      </c>
+      <c r="D52" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="5">
         <v>39828</v>
       </c>
-      <c r="F52" s="9">
+      <c r="G52" s="9">
         <v>17</v>
       </c>
-      <c r="G52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>61389013</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="5">
+        <v>324</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" s="5">
         <v>38012</v>
       </c>
-      <c r="F53" s="9">
+      <c r="G53" s="9">
         <v>17</v>
       </c>
-      <c r="G53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>25421719</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="5">
+        <v>325</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="5">
         <v>38817</v>
       </c>
-      <c r="F54" s="9">
+      <c r="G54" s="9">
         <v>17</v>
       </c>
-      <c r="G54" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26508451</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" s="5">
+        <v>325</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="5">
         <v>38189</v>
       </c>
-      <c r="F55" s="9">
+      <c r="G55" s="9">
         <v>17</v>
       </c>
-      <c r="G55" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>49240030</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="5">
+        <v>325</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="5">
         <v>40112</v>
       </c>
-      <c r="F56" s="9">
+      <c r="G56" s="9">
         <v>17</v>
       </c>
-      <c r="G56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>48244716</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
+        <v>325</v>
+      </c>
+      <c r="D57" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="5">
         <v>39780</v>
       </c>
-      <c r="F57" s="9">
+      <c r="G57" s="9">
         <v>17</v>
       </c>
-      <c r="G57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>60111739</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E58" s="5">
+        <v>325</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F58" s="5">
         <v>38393</v>
       </c>
-      <c r="F58" s="9">
+      <c r="G58" s="9">
         <v>16</v>
       </c>
-      <c r="G58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>48293181</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>147</v>
+        <v>332</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E59" s="5">
+        <v>325</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="5">
         <v>38513</v>
       </c>
-      <c r="F59" s="9">
+      <c r="G59" s="9">
         <v>16</v>
       </c>
-      <c r="G59" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>177041</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E60" s="5">
+        <v>325</v>
+      </c>
+      <c r="D60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="5">
         <v>38117</v>
       </c>
-      <c r="F60" s="9">
+      <c r="G60" s="9">
         <v>16</v>
       </c>
-      <c r="G60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>28602030</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E61" s="5">
+        <v>325</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" s="5">
         <v>38114</v>
       </c>
-      <c r="F61" s="9">
+      <c r="G61" s="9">
         <v>16</v>
       </c>
-      <c r="G61" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>48950076</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="5">
+        <v>325</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" s="5">
         <v>38572</v>
       </c>
-      <c r="F62" s="9">
+      <c r="G62" s="9">
         <v>16</v>
       </c>
-      <c r="G62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>26914620</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E63" s="5">
+        <v>325</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" s="5">
         <v>37069</v>
       </c>
-      <c r="F63" s="9">
+      <c r="G63" s="9">
         <v>16</v>
       </c>
-      <c r="G63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61389030</v>
       </c>
@@ -2891,137 +3140,155 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E64" s="5">
+        <v>324</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" s="5">
         <v>37855</v>
       </c>
-      <c r="F64" s="9">
+      <c r="G64" s="9">
         <v>16</v>
       </c>
-      <c r="G64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>26020343</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E65" s="5">
+        <v>325</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F65" s="5">
         <v>39240</v>
       </c>
-      <c r="F65" s="9">
+      <c r="G65" s="9">
         <v>15</v>
       </c>
-      <c r="G65" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>177041</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E66" s="5">
+        <v>325</v>
+      </c>
+      <c r="D66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F66" s="5">
         <v>38631</v>
       </c>
-      <c r="F66" s="9">
+      <c r="G66" s="9">
         <v>15</v>
       </c>
-      <c r="G66" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>45534381</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E67" s="5">
+        <v>325</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="5">
         <v>37145</v>
       </c>
-      <c r="F67" s="9">
+      <c r="G67" s="9">
         <v>15</v>
       </c>
-      <c r="G67" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>46747885</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>13</v>
+        <v>328</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="5">
+        <v>326</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68" s="5">
         <v>38238</v>
       </c>
-      <c r="F68" s="9">
+      <c r="G68" s="9">
         <v>15</v>
       </c>
-      <c r="G68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>26020343</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s">
+        <v>325</v>
+      </c>
+      <c r="D69" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E69" s="5">
+      <c r="E69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F69" s="5">
         <v>40168</v>
       </c>
-      <c r="F69" s="9">
+      <c r="G69" s="9">
         <v>15</v>
       </c>
-      <c r="G69" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>61389030</v>
       </c>
@@ -3029,298 +3296,337 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
+        <v>324</v>
+      </c>
+      <c r="D70" t="s">
         <v>1</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" s="5">
+      <c r="E70" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" s="5">
         <v>38579</v>
       </c>
-      <c r="F70" s="9">
+      <c r="G70" s="9">
         <v>14</v>
       </c>
-      <c r="G70" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>507814</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
+        <v>325</v>
+      </c>
+      <c r="D71" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E71" s="5">
+      <c r="E71" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="5">
         <v>39350</v>
       </c>
-      <c r="F71" s="9">
+      <c r="G71" s="9">
         <v>14</v>
       </c>
-      <c r="G71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>48244716</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
+        <v>325</v>
+      </c>
+      <c r="D72" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E72" s="5">
+      <c r="E72" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" s="5">
         <v>38100</v>
       </c>
-      <c r="F72" s="9">
+      <c r="G72" s="9">
         <v>14</v>
       </c>
-      <c r="G72" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>177041</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E73" s="5">
+        <v>325</v>
+      </c>
+      <c r="D73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F73" s="5">
         <v>38832</v>
       </c>
-      <c r="F73" s="9">
+      <c r="G73" s="9">
         <v>14</v>
       </c>
-      <c r="G73" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>45534578</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
+        <v>325</v>
+      </c>
+      <c r="D74" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" s="5">
+      <c r="E74" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F74" s="5">
         <v>37949</v>
       </c>
-      <c r="F74" s="9">
+      <c r="G74" s="9">
         <v>14</v>
       </c>
-      <c r="G74" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>60461373</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E75" s="5">
+        <v>326</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F75" s="5">
         <v>37698</v>
       </c>
-      <c r="F75" s="9">
+      <c r="G75" s="9">
         <v>14</v>
       </c>
-      <c r="G75" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>49240030</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E76" s="5">
+        <v>325</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76" s="5">
         <v>38204</v>
       </c>
-      <c r="F76" s="9">
+      <c r="G76" s="9">
         <v>14</v>
       </c>
-      <c r="G76" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>61388963</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E77" s="5">
+        <v>324</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" s="5">
         <v>37435</v>
       </c>
-      <c r="F77" s="9">
+      <c r="G77" s="9">
         <v>13</v>
       </c>
-      <c r="G77" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>49240030</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E78" s="5">
+        <v>325</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F78" s="5">
         <v>40494</v>
       </c>
-      <c r="F78" s="9">
+      <c r="G78" s="9">
         <v>13</v>
       </c>
-      <c r="G78" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>45314772</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E79" s="5">
+        <v>325</v>
+      </c>
+      <c r="D79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F79" s="5">
         <v>38208</v>
       </c>
-      <c r="F79" s="9">
+      <c r="G79" s="9">
         <v>13</v>
       </c>
-      <c r="G79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>177041</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E80" s="5">
+        <v>325</v>
+      </c>
+      <c r="D80" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F80" s="5">
         <v>39227</v>
       </c>
-      <c r="F80" s="9">
+      <c r="G80" s="9">
         <v>13</v>
       </c>
-      <c r="G80" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>60715286</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>198</v>
+        <v>334</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E81" s="5">
+        <v>325</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81" s="5">
         <v>37361</v>
       </c>
-      <c r="F81" s="9">
+      <c r="G81" s="9">
         <v>13</v>
       </c>
-      <c r="G81" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>49240030</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E82" s="5">
+        <v>325</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F82" s="5">
         <v>38225</v>
       </c>
-      <c r="F82" s="9">
+      <c r="G82" s="9">
         <v>13</v>
       </c>
-      <c r="G82" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>61389030</v>
       </c>
@@ -3328,252 +3634,285 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
+        <v>324</v>
+      </c>
+      <c r="D83" t="s">
         <v>1</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E83" s="5">
+      <c r="E83" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F83" s="5">
         <v>39444</v>
       </c>
-      <c r="F83" s="9">
+      <c r="G83" s="9">
         <v>13</v>
       </c>
-      <c r="G83" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>177041</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C84" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" t="s">
         <v>1</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E84" s="5">
+      <c r="E84" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F84" s="5">
         <v>38638</v>
       </c>
-      <c r="F84" s="9">
+      <c r="G84" s="9">
         <v>13</v>
       </c>
-      <c r="G84" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>177041</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E85" s="5">
+        <v>325</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F85" s="5">
         <v>38644</v>
       </c>
-      <c r="F85" s="9">
+      <c r="G85" s="9">
         <v>13</v>
       </c>
-      <c r="G85" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>177041</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C86" t="s">
-        <v>77</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E86" s="5">
+        <v>325</v>
+      </c>
+      <c r="D86" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" s="5">
         <v>37757</v>
       </c>
-      <c r="F86" s="9">
+      <c r="G86" s="9">
         <v>13</v>
       </c>
-      <c r="G86" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>28982347</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E87" s="5">
+        <v>325</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F87" s="5">
         <v>36780</v>
       </c>
-      <c r="F87" s="9">
+      <c r="G87" s="9">
         <v>13</v>
       </c>
-      <c r="G87" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>177041</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C88" t="s">
+        <v>325</v>
+      </c>
+      <c r="D88" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E88" s="5">
+      <c r="E88" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" s="5">
         <v>38985</v>
       </c>
-      <c r="F88" s="9">
+      <c r="G88" s="9">
         <v>13</v>
       </c>
-      <c r="G88" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>49240030</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E89" s="5">
+        <v>325</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" s="5">
         <v>39015</v>
       </c>
-      <c r="F89" s="9">
+      <c r="G89" s="9">
         <v>13</v>
       </c>
-      <c r="G89" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>61989592</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>218</v>
+        <v>335</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E90" s="5">
+        <v>326</v>
+      </c>
+      <c r="D90" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="5">
         <v>37747</v>
       </c>
-      <c r="F90" s="9">
+      <c r="G90" s="9">
         <v>13</v>
       </c>
-      <c r="G90" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>61389013</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E91" s="5">
+        <v>324</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" s="5">
         <v>38183</v>
       </c>
-      <c r="F91" s="9">
+      <c r="G91" s="9">
         <v>13</v>
       </c>
-      <c r="G91" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3741044</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
+        <v>325</v>
+      </c>
+      <c r="D92" t="s">
         <v>1</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E92" s="5">
+      <c r="E92" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F92" s="5">
         <v>37392</v>
       </c>
-      <c r="F92" s="9">
+      <c r="G92" s="9">
         <v>12</v>
       </c>
-      <c r="G92" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>48244716</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C93" t="s">
+        <v>325</v>
+      </c>
+      <c r="D93" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E93" s="5">
+      <c r="E93" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F93" s="5">
         <v>38100</v>
       </c>
-      <c r="F93" s="9">
+      <c r="G93" s="9">
         <v>12</v>
       </c>
-      <c r="G93" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>61389030</v>
       </c>
@@ -3581,183 +3920,207 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
+        <v>324</v>
+      </c>
+      <c r="D94" t="s">
         <v>1</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E94" s="5">
+      <c r="E94" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F94" s="5">
         <v>39281</v>
       </c>
-      <c r="F94" s="9">
+      <c r="G94" s="9">
         <v>12</v>
       </c>
-      <c r="G94" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>47677023</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C95" t="s">
+        <v>325</v>
+      </c>
+      <c r="D95" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E95" s="5">
+      <c r="E95" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" s="5">
         <v>39513</v>
       </c>
-      <c r="F95" s="9">
+      <c r="G95" s="9">
         <v>12</v>
       </c>
-      <c r="G95" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>49240030</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E96" s="5">
+        <v>325</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F96" s="5">
         <v>37610</v>
       </c>
-      <c r="F96" s="9">
+      <c r="G96" s="9">
         <v>12</v>
       </c>
-      <c r="G96" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>48950076</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E97" s="5">
+        <v>325</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F97" s="5">
         <v>38323</v>
       </c>
-      <c r="F97" s="9">
+      <c r="G97" s="9">
         <v>12</v>
       </c>
-      <c r="G97" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>25421719</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E98" s="5">
+        <v>325</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F98" s="5">
         <v>39645</v>
       </c>
-      <c r="F98" s="9">
+      <c r="G98" s="9">
         <v>12</v>
       </c>
-      <c r="G98" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>27078957</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C99" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" t="s">
         <v>1</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E99" s="5">
+      <c r="E99" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F99" s="5">
         <v>40368</v>
       </c>
-      <c r="F99" s="9">
+      <c r="G99" s="9">
         <v>12</v>
       </c>
-      <c r="G99" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>25421719</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E100" s="5">
+        <v>325</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F100" s="5">
         <v>38817</v>
       </c>
-      <c r="F100" s="9">
+      <c r="G100" s="9">
         <v>12</v>
       </c>
-      <c r="G100" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>47677023</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C101" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" t="s">
         <v>1</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E101" s="5">
+      <c r="E101" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F101" s="5">
         <v>39513</v>
       </c>
-      <c r="F101" s="9">
+      <c r="G101" s="9">
         <v>12</v>
       </c>
-      <c r="G101" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>61389030</v>
       </c>
@@ -3765,344 +4128,389 @@
         <v>0</v>
       </c>
       <c r="C102" t="s">
+        <v>324</v>
+      </c>
+      <c r="D102" t="s">
         <v>1</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E102" s="5">
+      <c r="E102" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F102" s="5">
         <v>36973</v>
       </c>
-      <c r="F102" s="9">
+      <c r="G102" s="9">
         <v>12</v>
       </c>
-      <c r="G102" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>49240030</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E103" s="5">
+        <v>325</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F103" s="5">
         <v>40191</v>
       </c>
-      <c r="F103" s="9">
+      <c r="G103" s="9">
         <v>12</v>
       </c>
-      <c r="G103" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>49100262</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E104" s="5">
+        <v>325</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F104" s="5">
         <v>36635</v>
       </c>
-      <c r="F104" s="9">
+      <c r="G104" s="9">
         <v>12</v>
       </c>
-      <c r="G104" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>64088791</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E105" s="5">
+        <v>325</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F105" s="5">
         <v>37938</v>
       </c>
-      <c r="F105" s="9">
+      <c r="G105" s="9">
         <v>12</v>
       </c>
-      <c r="G105" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>26158451</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C106" t="s">
+        <v>325</v>
+      </c>
+      <c r="D106" t="s">
         <v>1</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E106" s="5">
+      <c r="E106" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F106" s="5">
         <v>38405</v>
       </c>
-      <c r="F106" s="9">
+      <c r="G106" s="9">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>61388963</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
+        <v>324</v>
+      </c>
+      <c r="D107" t="s">
         <v>1</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E107" s="5">
+      <c r="E107" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F107" s="5">
         <v>38691</v>
       </c>
-      <c r="F107" s="9">
+      <c r="G107" s="9">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>177041</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C108" t="s">
-        <v>77</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E108" s="5">
+        <v>325</v>
+      </c>
+      <c r="D108" t="s">
+        <v>72</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F108" s="5">
         <v>38117</v>
       </c>
-      <c r="F108" s="9">
+      <c r="G108" s="9">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>177041</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C109" t="s">
+        <v>325</v>
+      </c>
+      <c r="D109" t="s">
         <v>1</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E109" s="5">
+      <c r="E109" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F109" s="5">
         <v>38638</v>
       </c>
-      <c r="F109" s="9">
+      <c r="G109" s="9">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>49240030</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C110" t="s">
+        <v>325</v>
+      </c>
+      <c r="D110" t="s">
         <v>1</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E110" s="5">
+      <c r="E110" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F110" s="5">
         <v>38539</v>
       </c>
-      <c r="F110" s="9">
+      <c r="G110" s="9">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>63218003</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E111" s="5">
+        <v>325</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F111" s="5">
         <v>39919</v>
       </c>
-      <c r="F111" s="9">
+      <c r="G111" s="9">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>24304450</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C112" t="s">
+        <v>325</v>
+      </c>
+      <c r="D112" t="s">
         <v>1</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E112" s="5">
+      <c r="E112" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F112" s="5">
         <v>40485</v>
       </c>
-      <c r="F112" s="9">
+      <c r="G112" s="9">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>177041</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C113" t="s">
-        <v>77</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E113" s="5">
+        <v>325</v>
+      </c>
+      <c r="D113" t="s">
+        <v>72</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F113" s="5">
         <v>38406</v>
       </c>
-      <c r="F113" s="9">
+      <c r="G113" s="9">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>60112301</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C114" t="s">
+        <v>325</v>
+      </c>
+      <c r="D114" t="s">
         <v>1</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E114" s="5">
+      <c r="E114" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F114" s="5">
         <v>36586</v>
       </c>
-      <c r="F114" s="9">
+      <c r="G114" s="9">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>15547515</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
+        <v>325</v>
+      </c>
+      <c r="D115" t="s">
         <v>1</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E115" s="5">
+      <c r="E115" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F115" s="5">
         <v>38274</v>
       </c>
-      <c r="F115" s="9">
+      <c r="G115" s="9">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>47675764</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E116" s="5">
+        <v>325</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F116" s="5">
         <v>37415</v>
       </c>
-      <c r="F116" s="9">
+      <c r="G116" s="9">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>61389030</v>
       </c>
@@ -4110,462 +4518,523 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E117" s="5">
+        <v>324</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F117" s="5">
         <v>37469</v>
       </c>
-      <c r="F117" s="9">
+      <c r="G117" s="9">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>15547515</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
+        <v>325</v>
+      </c>
+      <c r="D118" t="s">
         <v>1</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E118" s="5">
+      <c r="E118" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F118" s="5">
         <v>38401</v>
       </c>
-      <c r="F118" s="9">
+      <c r="G118" s="9">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>49240030</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E119" s="5">
+        <v>325</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F119" s="5">
         <v>38121</v>
       </c>
-      <c r="F119" s="9">
+      <c r="G119" s="9">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>177041</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E120" s="5">
+        <v>325</v>
+      </c>
+      <c r="D120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F120" s="5">
         <v>38703</v>
       </c>
-      <c r="F120" s="9">
+      <c r="G120" s="9">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>64088791</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
+        <v>325</v>
+      </c>
+      <c r="D121" t="s">
         <v>1</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E121" s="5">
+      <c r="E121" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F121" s="5">
         <v>40574</v>
       </c>
-      <c r="F121" s="9">
+      <c r="G121" s="9">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>41600240</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C122" t="s">
+        <v>325</v>
+      </c>
+      <c r="D122" t="s">
         <v>1</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E122" s="5">
+      <c r="E122" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F122" s="5">
         <v>38338</v>
       </c>
-      <c r="F122" s="9">
+      <c r="G122" s="9">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>68378271</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E123" s="5">
+        <v>324</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F123" s="5">
         <v>39892</v>
       </c>
-      <c r="F123" s="9">
+      <c r="G123" s="9">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>46747885</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>13</v>
+        <v>328</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E124" s="5">
+        <v>326</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F124" s="5">
         <v>39736</v>
       </c>
-      <c r="F124" s="9">
+      <c r="G124" s="9">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>25492110</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C125" t="s">
+        <v>325</v>
+      </c>
+      <c r="D125" t="s">
         <v>1</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E125" s="5">
+      <c r="E125" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F125" s="5">
         <v>36866</v>
       </c>
-      <c r="F125" s="9">
+      <c r="G125" s="9">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>25904795</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E126" s="5">
+        <v>325</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F126" s="5">
         <v>38460</v>
       </c>
-      <c r="F126" s="9">
+      <c r="G126" s="9">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>48244716</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C127" t="s">
+        <v>325</v>
+      </c>
+      <c r="D127" t="s">
         <v>1</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E127" s="5">
+      <c r="E127" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F127" s="5">
         <v>38100</v>
       </c>
-      <c r="F127" s="9">
+      <c r="G127" s="9">
         <v>10</v>
       </c>
-      <c r="G127" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>28602030</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E128" s="5">
+        <v>325</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F128" s="5">
         <v>37777</v>
       </c>
-      <c r="F128" s="9">
+      <c r="G128" s="9">
         <v>10</v>
       </c>
-      <c r="G128" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>177041</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C129" t="s">
-        <v>77</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E129" s="5">
+        <v>325</v>
+      </c>
+      <c r="D129" t="s">
+        <v>72</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F129" s="5">
         <v>38290</v>
       </c>
-      <c r="F129" s="9">
+      <c r="G129" s="9">
         <v>10</v>
       </c>
-      <c r="G129" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>49240030</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E130" s="5">
+        <v>325</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F130" s="5">
         <v>39883</v>
       </c>
-      <c r="F130" s="9">
+      <c r="G130" s="9">
         <v>10</v>
       </c>
-      <c r="G130" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>26914620</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E131" s="5">
+        <v>325</v>
+      </c>
+      <c r="D131" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F131" s="5">
         <v>36608</v>
       </c>
-      <c r="F131" s="9">
+      <c r="G131" s="9">
         <v>10</v>
       </c>
-      <c r="G131" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>177041</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>44</v>
+        <v>331</v>
       </c>
       <c r="C132" t="s">
-        <v>77</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E132" s="5">
+        <v>325</v>
+      </c>
+      <c r="D132" t="s">
+        <v>72</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F132" s="5">
         <v>38131</v>
       </c>
-      <c r="F132" s="9">
+      <c r="G132" s="9">
         <v>10</v>
       </c>
-      <c r="G132" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>44017774</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C133" t="s">
+        <v>325</v>
+      </c>
+      <c r="D133" t="s">
         <v>1</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E133" s="5">
+      <c r="E133" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F133" s="5">
         <v>40053</v>
       </c>
-      <c r="F133" s="9">
+      <c r="G133" s="9">
         <v>10</v>
       </c>
-      <c r="G133" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>49240030</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="E134" s="5">
+        <v>325</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F134" s="5">
         <v>40050</v>
       </c>
-      <c r="F134" s="9">
+      <c r="G134" s="9">
         <v>10</v>
       </c>
-      <c r="G134" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>15547515</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E135" s="5">
+        <v>325</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F135" s="5">
         <v>38223</v>
       </c>
-      <c r="F135" s="9">
+      <c r="G135" s="9">
         <v>10</v>
       </c>
-      <c r="G135" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>27078957</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C136" t="s">
+        <v>325</v>
+      </c>
+      <c r="D136" t="s">
         <v>1</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E136" s="5">
+      <c r="E136" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F136" s="5">
         <v>40135</v>
       </c>
-      <c r="F136" s="9">
+      <c r="G136" s="9">
         <v>10</v>
       </c>
-      <c r="G136" t="s">
-        <v>324</v>
+      <c r="H136" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G105" r:id="rId1"/>
+    <hyperlink ref="H105" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>